--- a/w15/q2.xlsx
+++ b/w15/q2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA054EC-728A-4AAC-8B06-D9D5D9EE2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,13 +32,25 @@
   </si>
   <si>
     <t>误差向量的无穷范数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.99999999991912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.99999999978729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00000000009362</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,8 +89,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -88,14 +101,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +149,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,115 +394,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
         <v>10</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>20</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>100</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>200</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>2.9999999999191198</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.9999999997872899</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.00000000009362</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.1271000000000001E-10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,12 +525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/w15/q2.xlsx
+++ b/w15/q2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA054EC-728A-4AAC-8B06-D9D5D9EE2651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA32EB1-3D8A-4E44-8041-238775BE20C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,16 +35,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.99999999991912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.99999999978729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.00000000009362</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.0000</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -489,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.1271000000000001E-10</v>
+        <v>6.3223E-9</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -503,6 +500,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
